--- a/ValueSet-pacio-cat-vs.xlsx
+++ b/ValueSet-pacio-cat-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-16T08:45:55-07:00</t>
+    <t>2021-09-23T10:50:45-07:00</t>
   </si>
   <si>
     <t>Publisher</t>
